--- a/resource/专业分类.xlsx
+++ b/resource/专业分类.xlsx
@@ -4,18 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="12200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="125">
   <si>
     <t>code</t>
   </si>
@@ -338,69 +351,55 @@
     <t>RACK</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>BOP</t>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
-    <t>PIPE-F</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>BOP</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BOP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>部分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水工</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>SG</t>
+    <t>FWD-PIPE</t>
+  </si>
+  <si>
+    <t>FNP-PIPE</t>
+  </si>
+  <si>
+    <t>FGP-PIPE</t>
+  </si>
+  <si>
+    <t>FSP-PIPE</t>
+  </si>
+  <si>
+    <t>FEP-PIPE</t>
+  </si>
+  <si>
+    <t>FDP-PIPE</t>
+  </si>
+  <si>
+    <t>FWP-PIPE</t>
+  </si>
+  <si>
+    <t>WSS-PIPE</t>
+  </si>
+  <si>
+    <t>WRC-PIPE</t>
+  </si>
+  <si>
+    <t>WOD-PIPE</t>
+  </si>
+  <si>
+    <t>WPW-PIPE</t>
+  </si>
+  <si>
+    <t>HDY-PIPE</t>
+  </si>
+  <si>
+    <t>WWS-PIPE</t>
+  </si>
+  <si>
+    <t>WSW-PIPE</t>
   </si>
   <si>
     <t>END</t>
@@ -409,14 +408,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,44 +424,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -478,14 +443,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -525,6 +482,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -575,16 +547,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -596,55 +583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,31 +607,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,6 +643,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -722,7 +667,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,7 +715,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,6 +751,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -787,21 +774,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -834,6 +806,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,152 +877,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1046,58 +1033,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1840,10 +1824,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD7"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2456,28 +2440,28 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2485,7 +2469,7 @@
         <v>107</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
@@ -2494,16 +2478,16 @@
         <v>108</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2511,7 +2495,7 @@
         <v>107</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
@@ -2520,21 +2504,21 @@
         <v>108</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>21</v>
@@ -2543,24 +2527,24 @@
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>21</v>
@@ -2569,45 +2553,45 @@
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="16" customHeight="1" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2615,144 +2599,1092 @@
         <v>109</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>110</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" ht="16" customHeight="1" spans="1:8">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" ht="15.5" spans="1:8">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="33" ht="15.5" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/专业分类.xlsx
+++ b/resource/专业分类.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12200" activeTab="1"/>
+    <workbookView windowHeight="17775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1358,7 +1358,7 @@
       <selection activeCell="A38" sqref="A38:C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
@@ -1827,10 +1827,10 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
@@ -2357,7 +2357,7 @@
         <v>24</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8">
